--- a/BOM表.xlsx
+++ b/BOM表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Inverted_Pendulum_DengFOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850C2F61-E201-4755-8FC4-FAD67B9B80D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B63FA59-D62C-4EB6-9BE7-9DD7E663C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1884" windowWidth="17556" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>电控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,35 @@
   </si>
   <si>
     <t>M2x10螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电机TB地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://item.taobao.com/item.htm?id=647180650088&amp;price=6.3&amp;sourceType=item&amp;sourceType=item&amp;suid=6bd855ab-8a6a-4c26-b2ab-577e9397601e&amp;ut_sk=1.XtyfYTChWtEDAEnaArekytqI_21646297_1646357366310.TaoPassword-WeiXin.ShareGlobalNavigation_1&amp;un=7e708d46d872c2684c6e4bed9157ce66&amp;share_crt_v=1&amp;un_site=0&amp;spm=a2159r.13376460.0.0&amp;sp_tk=M1pYQzJmMFFQVU0=&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fnKzoxN&amp;bxsign=scdFsAipsuyvjQFRm8HtPLO_ktHt4vs6JRxOrx_N6UKyIFMU7O9RG6iZ3pSh-5S5w_b3bEeT1ZBX8AlcwSEsbSHxlQPZ6ubt3RWqbwHMMlUJhVUzPdJzJXFgpGF1cwL9dGW&amp;tk=3ZXC2f0QPUM&amp;app=chrome</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +149,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -148,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,7 +472,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -458,6 +496,9 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,6 +554,9 @@
       </c>
       <c r="B6">
         <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
